--- a/va_facility_data_2025-02-20/Cleveland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cleveland%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cleveland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cleveland%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd99c5da8eedc4b559233dff857c84668"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9fc0fc6a377446e7a83c872ccf30a55f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R61d84f22485d477387417354fe96a2f6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra7fa2dd10b2a494da9f52e13c98a2702"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdb1dde2809ee4dddb9cab01c9c2b00dc"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rad4841a2057442d08906e1cfe578702c"/>
   </x:sheets>
 </x:workbook>
 </file>
